--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:19:21+00:00</t>
+    <t>2022-03-11T15:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T15:39:18+00:00</t>
+    <t>2022-03-11T16:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T16:12:42+00:00</t>
+    <t>2022-03-29T08:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:17:10+00:00</t>
+    <t>2022-03-29T08:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:21:37+00:00</t>
+    <t>2022-03-29T10:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T10:12:25+00:00</t>
+    <t>2022-03-30T15:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:39:36+00:00</t>
+    <t>2022-04-06T16:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T16:28:25+00:00</t>
+    <t>2022-04-08T16:35:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The estimated date on which to expect the next invitation</t>
+    <t>This is variable text giving an estimate when the next screening is scheduled, if there is any and why.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -319,10 +319,6 @@
   </si>
   <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -1243,13 +1239,13 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1312,7 +1308,7 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>98</v>

--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T16:35:46+00:00</t>
+    <t>2022-04-11T16:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
+++ b/branches/master/StructureDefinition-BvoNextInvitationIndication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:06:52+00:00</t>
+    <t>2022-04-12T10:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
